--- a/Synthèse-Experiences/ExperimentsMAJvendrediaprem.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJvendrediaprem.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/clemencebriosnefrejaville/Desktop/GitHubAustralie/Synthèse-Experiences/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25160" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resultats" sheetId="1" r:id="rId1"/>
     <sheet name="Interpretations" sheetId="2" r:id="rId2"/>
     <sheet name="Resolution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -116,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="112">
   <si>
     <t>Colonne7</t>
   </si>
@@ -542,6 +547,24 @@
   <si>
     <t>on exp 23.</t>
   </si>
+  <si>
+    <t>8-juil.</t>
+  </si>
+  <si>
+    <t>Membrane2 100 nm a l'envers</t>
+  </si>
+  <si>
+    <t>1 hole</t>
+  </si>
+  <si>
+    <t>11-juil</t>
+  </si>
+  <si>
+    <t>highstepdoses2</t>
+  </si>
+  <si>
+    <t>dose1to3</t>
+  </si>
 </sst>
 </file>
 
@@ -552,7 +575,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,8 +681,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,8 +811,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -850,6 +887,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBBBBAD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBBBBAD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -870,7 +918,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,6 +1171,42 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -3429,8 +3513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:AF39" dataDxfId="79">
-  <autoFilter ref="A3:AF39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:AF60" dataDxfId="79">
+  <autoFilter ref="A3:AF60">
     <filterColumn colId="3">
       <filters blank="1">
         <dateGroupItem year="2016" month="7" dateTimeGrouping="month"/>
@@ -3834,48 +3918,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AA24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3"/>
+      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.296875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="75" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" style="69" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="14" width="10.796875" customWidth="1"/>
-    <col min="15" max="15" width="10.796875" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="41" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="11.796875" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" customWidth="1"/>
-    <col min="19" max="19" width="11.796875" customWidth="1"/>
-    <col min="20" max="20" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.796875" customWidth="1"/>
-    <col min="22" max="22" width="13.19921875" customWidth="1"/>
-    <col min="23" max="23" width="11.796875" customWidth="1"/>
-    <col min="24" max="24" width="13.19921875" customWidth="1"/>
-    <col min="25" max="25" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.296875" customWidth="1"/>
-    <col min="29" max="29" width="14.19921875" customWidth="1"/>
-    <col min="30" max="30" width="17.296875" customWidth="1"/>
-    <col min="31" max="31" width="15.19921875" customWidth="1"/>
-    <col min="32" max="32" width="41.796875" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" customWidth="1"/>
+    <col min="29" max="29" width="14.1640625" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="15.1640625" customWidth="1"/>
+    <col min="32" max="32" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -3913,7 +3997,7 @@
       </c>
       <c r="AE1" s="49"/>
     </row>
-    <row r="2" spans="1:32" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="60"/>
       <c r="M2" s="86" t="s">
         <v>33</v>
@@ -3951,7 +4035,7 @@
       <c r="AD2" s="82"/>
       <c r="AE2" s="82"/>
     </row>
-    <row r="3" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>77</v>
       </c>
@@ -4049,7 +4133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -4131,7 +4215,7 @@
       <c r="AE4" s="13"/>
       <c r="AF4" s="15"/>
     </row>
-    <row r="5" spans="1:32" s="19" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" s="19" customFormat="1" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -4215,7 +4299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="19" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" s="19" customFormat="1" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>3</v>
       </c>
@@ -4298,7 +4382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -4382,7 +4466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -4466,7 +4550,7 @@
       <c r="AE8" s="13"/>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>6</v>
       </c>
@@ -4550,7 +4634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>7</v>
       </c>
@@ -4634,7 +4718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>8</v>
       </c>
@@ -4720,7 +4804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>9</v>
       </c>
@@ -4808,7 +4892,7 @@
       </c>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -4890,7 +4974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>11</v>
       </c>
@@ -4976,7 +5060,7 @@
       <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
     </row>
-    <row r="15" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>12</v>
       </c>
@@ -5064,7 +5148,7 @@
       <c r="AE15" s="48"/>
       <c r="AF15" s="15"/>
     </row>
-    <row r="16" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>13</v>
       </c>
@@ -5152,7 +5236,7 @@
       <c r="AE16" s="48"/>
       <c r="AF16" s="15"/>
     </row>
-    <row r="17" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>14</v>
       </c>
@@ -5248,7 +5332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>15</v>
       </c>
@@ -5344,7 +5428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>16</v>
       </c>
@@ -5432,7 +5516,7 @@
       <c r="AE19" s="58"/>
       <c r="AF19" s="58"/>
     </row>
-    <row r="20" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>17</v>
       </c>
@@ -5524,7 +5608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="31.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>18</v>
       </c>
@@ -5608,7 +5692,7 @@
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
     </row>
-    <row r="22" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -5694,7 +5778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -5779,7 +5863,7 @@
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
     </row>
-    <row r="24" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -5865,7 +5949,7 @@
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
     </row>
-    <row r="25" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -5950,7 +6034,7 @@
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
     </row>
-    <row r="26" spans="1:32" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -6037,7 +6121,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -6125,7 +6209,7 @@
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
     </row>
-    <row r="28" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -6213,7 +6297,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
         <v>27</v>
       </c>
@@ -6299,7 +6383,7 @@
       <c r="AE29" s="15"/>
       <c r="AF29" s="15"/>
     </row>
-    <row r="30" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>28</v>
       </c>
@@ -6385,7 +6469,7 @@
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
     </row>
-    <row r="31" spans="1:32" s="51" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
         <v>29</v>
       </c>
@@ -6471,7 +6555,7 @@
       <c r="AE31" s="28"/>
       <c r="AF31" s="28"/>
     </row>
-    <row r="32" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="33">
         <v>30</v>
       </c>
@@ -6556,7 +6640,7 @@
       <c r="AD32" s="28"/>
       <c r="AE32" s="28"/>
     </row>
-    <row r="33" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>31</v>
       </c>
@@ -6642,7 +6726,7 @@
       <c r="AE33" s="28"/>
       <c r="AF33" s="28"/>
     </row>
-    <row r="34" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>32</v>
       </c>
@@ -6728,7 +6812,7 @@
       <c r="AE34" s="28"/>
       <c r="AF34" s="28"/>
     </row>
-    <row r="35" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
         <v>33</v>
       </c>
@@ -6814,7 +6898,7 @@
       <c r="AE35" s="28"/>
       <c r="AF35" s="28"/>
     </row>
-    <row r="36" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="33">
         <v>34</v>
       </c>
@@ -6900,7 +6984,7 @@
       <c r="AE36" s="28"/>
       <c r="AF36" s="28"/>
     </row>
-    <row r="37" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
         <v>35</v>
       </c>
@@ -6985,20 +7069,47 @@
       <c r="AE37" s="28"/>
       <c r="AF37" s="28"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
+    <row r="38" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="33">
+        <f>A37+1</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="80">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C38" s="74">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="43">
+        <v>10</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="43">
+        <v>1</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="43">
+        <v>20</v>
+      </c>
+      <c r="L38" s="43">
+        <v>7.27</v>
+      </c>
+      <c r="M38" s="43">
+        <v>0.5</v>
+      </c>
       <c r="N38" s="43"/>
       <c r="O38" s="45"/>
       <c r="P38" s="13"/>
@@ -7037,20 +7148,48 @@
       <c r="AE38" s="28"/>
       <c r="AF38" s="28"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
+    <row r="39" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="33">
+        <f t="shared" ref="A39:A60" si="2">A38+1</f>
+        <v>37</v>
+      </c>
+      <c r="B39" s="80">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C39" s="74">
+        <f>C38+0.001</f>
+        <v>2.7130000000000001</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="43">
+        <v>10</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="43">
+        <v>1</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="43">
+        <v>20</v>
+      </c>
+      <c r="L39" s="43">
+        <v>7.0350000000000001</v>
+      </c>
+      <c r="M39" s="43">
+        <v>0.1</v>
+      </c>
       <c r="N39" s="43"/>
       <c r="O39" s="45"/>
       <c r="P39" s="13"/>
@@ -7088,6 +7227,1640 @@
       <c r="AD39" s="28"/>
       <c r="AE39" s="28"/>
       <c r="AF39" s="28"/>
+    </row>
+    <row r="40" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="33">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="80">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C40" s="74">
+        <f t="shared" ref="C40:C43" si="3">C39+0.001</f>
+        <v>2.714</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="43">
+        <v>10</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="14">
+        <v>20</v>
+      </c>
+      <c r="L40" s="14">
+        <v>7.2149999999999999</v>
+      </c>
+      <c r="M40" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="N40" s="15"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="15"/>
+      <c r="T40" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="15"/>
+      <c r="V40" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="15"/>
+      <c r="X40" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="15"/>
+    </row>
+    <row r="41" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="33">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="80">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C41" s="74">
+        <f t="shared" si="3"/>
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="43">
+        <v>10</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="14">
+        <v>20</v>
+      </c>
+      <c r="L41" s="14">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="N41" s="15"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="15"/>
+      <c r="T41" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="15"/>
+      <c r="V41" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="15"/>
+      <c r="X41" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="101"/>
+      <c r="AE41" s="101"/>
+      <c r="AF41" s="15"/>
+    </row>
+    <row r="42" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="33">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="80">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C42" s="74">
+        <f t="shared" si="3"/>
+        <v>2.7159999999999997</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="43">
+        <v>10</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="14">
+        <v>2</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="14">
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="M42" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="N42" s="15"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="15"/>
+      <c r="T42" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="15"/>
+      <c r="V42" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="15"/>
+      <c r="X42" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="101"/>
+      <c r="AE42" s="101"/>
+      <c r="AF42" s="15"/>
+    </row>
+    <row r="43" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="33">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="80">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C43" s="74">
+        <f t="shared" si="3"/>
+        <v>2.7169999999999996</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="43">
+        <v>10</v>
+      </c>
+      <c r="H43" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="14">
+        <v>2</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="14">
+        <v>7.2009999999999996</v>
+      </c>
+      <c r="M43" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="N43" s="15"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="15"/>
+      <c r="T43" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="15"/>
+      <c r="V43" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="15"/>
+      <c r="X43" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="101"/>
+      <c r="AE43" s="101"/>
+      <c r="AF43" s="15"/>
+    </row>
+    <row r="44" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="33">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="80">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="C44" s="74">
+        <f>C43</f>
+        <v>2.7169999999999996</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="43">
+        <v>10</v>
+      </c>
+      <c r="H44" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="14">
+        <v>2</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="14">
+        <v>5</v>
+      </c>
+      <c r="L44" s="14">
+        <v>7.109</v>
+      </c>
+      <c r="M44" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N44" s="15"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="15"/>
+      <c r="T44" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="15"/>
+      <c r="V44" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="15"/>
+      <c r="X44" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="101"/>
+      <c r="AE44" s="101"/>
+      <c r="AF44" s="15"/>
+    </row>
+    <row r="45" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="33">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="95">
+        <v>10</v>
+      </c>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="15"/>
+      <c r="T45" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="15"/>
+      <c r="V45" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="15"/>
+      <c r="X45" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="101"/>
+      <c r="AE45" s="101"/>
+      <c r="AF45" s="15"/>
+    </row>
+    <row r="46" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A46" s="33">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="97"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="95">
+        <v>10</v>
+      </c>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="15"/>
+      <c r="T46" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U46" s="15"/>
+      <c r="V46" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="15"/>
+      <c r="X46" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="101"/>
+      <c r="AE46" s="101"/>
+      <c r="AF46" s="15"/>
+    </row>
+    <row r="47" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="33">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="95">
+        <v>10</v>
+      </c>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="15"/>
+      <c r="V47" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="15"/>
+      <c r="X47" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="101"/>
+      <c r="AE47" s="101"/>
+      <c r="AF47" s="15"/>
+    </row>
+    <row r="48" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="33">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C48" s="99">
+        <v>2.274</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="43">
+        <v>10</v>
+      </c>
+      <c r="H48" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" s="14">
+        <v>10</v>
+      </c>
+      <c r="L48" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="M48" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="N48" s="15"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="15"/>
+      <c r="T48" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="15"/>
+      <c r="V48" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="15"/>
+      <c r="X48" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="15"/>
+    </row>
+    <row r="49" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="33">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C49" s="99">
+        <f>C48+0.001</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="43">
+        <v>10</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="14">
+        <v>60</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" s="14">
+        <v>1</v>
+      </c>
+      <c r="L49" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="M49" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N49" s="15"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="15"/>
+      <c r="T49" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="15"/>
+      <c r="V49" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="15"/>
+      <c r="X49" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="101"/>
+      <c r="AE49" s="101"/>
+      <c r="AF49" s="15"/>
+    </row>
+    <row r="50" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A50" s="33">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C50" s="99">
+        <f t="shared" ref="C50:C58" si="4">C49+0.001</f>
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="43">
+        <v>10</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="14">
+        <v>30</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" s="14">
+        <v>2</v>
+      </c>
+      <c r="L50" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="M50" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N50" s="15"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="15"/>
+      <c r="T50" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="15"/>
+      <c r="V50" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="15"/>
+      <c r="X50" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="101"/>
+      <c r="AE50" s="101"/>
+      <c r="AF50" s="15"/>
+    </row>
+    <row r="51" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="33">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C51" s="99">
+        <f t="shared" si="4"/>
+        <v>2.2769999999999997</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="43">
+        <v>10</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="14">
+        <v>20</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" s="14">
+        <v>3</v>
+      </c>
+      <c r="L51" s="14">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="M51" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N51" s="15"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="15"/>
+      <c r="T51" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="15"/>
+      <c r="V51" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="15"/>
+      <c r="X51" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="101"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="15"/>
+    </row>
+    <row r="52" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A52" s="33">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C52" s="99">
+        <f t="shared" si="4"/>
+        <v>2.2779999999999996</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="43">
+        <v>10</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="14">
+        <v>15</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K52" s="14">
+        <v>4</v>
+      </c>
+      <c r="L52" s="14">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="M52" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N52" s="15"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="15"/>
+      <c r="T52" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="15"/>
+      <c r="V52" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="15"/>
+      <c r="X52" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="101"/>
+      <c r="AE52" s="101"/>
+      <c r="AF52" s="15"/>
+    </row>
+    <row r="53" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="33">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C53" s="99">
+        <f t="shared" si="4"/>
+        <v>2.2789999999999995</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="43">
+        <v>10</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="14">
+        <v>12</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" s="14">
+        <v>5</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="M53" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N53" s="15"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="15"/>
+      <c r="T53" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="15"/>
+      <c r="V53" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="15"/>
+      <c r="X53" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="101"/>
+      <c r="AE53" s="101"/>
+      <c r="AF53" s="15"/>
+    </row>
+    <row r="54" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="33">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C54" s="99">
+        <f t="shared" si="4"/>
+        <v>2.2799999999999994</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="43">
+        <v>10</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="14">
+        <v>6</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="14">
+        <v>10</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M54" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N54" s="15"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="15"/>
+      <c r="T54" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="15"/>
+      <c r="V54" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="15"/>
+      <c r="X54" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="101"/>
+      <c r="AE54" s="101"/>
+      <c r="AF54" s="15"/>
+    </row>
+    <row r="55" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="33">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C55" s="99">
+        <f t="shared" si="4"/>
+        <v>2.2809999999999993</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="43">
+        <v>10</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="14">
+        <v>5</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K55" s="14">
+        <v>12</v>
+      </c>
+      <c r="L55" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="M55" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N55" s="15"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="15"/>
+      <c r="T55" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="15"/>
+      <c r="V55" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="15"/>
+      <c r="X55" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="101"/>
+      <c r="AE55" s="101"/>
+      <c r="AF55" s="15"/>
+    </row>
+    <row r="56" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A56" s="33">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C56" s="99">
+        <f t="shared" si="4"/>
+        <v>2.2819999999999991</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="43">
+        <v>10</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" s="14">
+        <v>4</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" s="14">
+        <v>15</v>
+      </c>
+      <c r="L56" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="15"/>
+      <c r="T56" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="15"/>
+      <c r="V56" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="15"/>
+      <c r="X56" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="101"/>
+      <c r="AE56" s="101"/>
+      <c r="AF56" s="15"/>
+    </row>
+    <row r="57" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="33">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C57" s="99">
+        <f t="shared" si="4"/>
+        <v>2.282999999999999</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="43">
+        <v>10</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" s="14">
+        <v>2</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57" s="14">
+        <v>30</v>
+      </c>
+      <c r="L57" s="14">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M57" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N57" s="15"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="15"/>
+      <c r="T57" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="15"/>
+      <c r="V57" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="15"/>
+      <c r="X57" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="101"/>
+      <c r="AF57" s="15"/>
+    </row>
+    <row r="58" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A58" s="33">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C58" s="99">
+        <f t="shared" si="4"/>
+        <v>2.2839999999999989</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="43">
+        <v>10</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" s="14">
+        <v>1</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" s="14">
+        <v>60</v>
+      </c>
+      <c r="L58" s="14">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M58" s="15">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N58" s="15"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="15"/>
+      <c r="T58" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="15"/>
+      <c r="V58" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="15"/>
+      <c r="X58" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="101"/>
+      <c r="AE58" s="101"/>
+      <c r="AF58" s="15"/>
+    </row>
+    <row r="59" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="33">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C59" s="99">
+        <f>C58+0.002</f>
+        <v>2.2859999999999987</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="43">
+        <v>10</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="14">
+        <v>2</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" s="14">
+        <v>30</v>
+      </c>
+      <c r="L59" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="M59" s="15">
+        <v>6.6659999999999997E-2</v>
+      </c>
+      <c r="N59" s="15"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="15"/>
+      <c r="T59" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="15"/>
+      <c r="V59" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="15"/>
+      <c r="X59" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="101"/>
+      <c r="AE59" s="101"/>
+      <c r="AF59" s="15"/>
+    </row>
+    <row r="60" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A60" s="33">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="80">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C60" s="99">
+        <f>C59+0.001</f>
+        <v>2.2869999999999986</v>
+      </c>
+      <c r="D60" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="43">
+        <v>10</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="14">
+        <v>2</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" s="14">
+        <v>30</v>
+      </c>
+      <c r="L60" s="14">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="M60" s="15">
+        <v>1.6660000000000001E-2</v>
+      </c>
+      <c r="N60" s="15"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="15"/>
+      <c r="T60" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="15"/>
+      <c r="V60" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="15"/>
+      <c r="X60" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="101"/>
+      <c r="AE60" s="101"/>
+      <c r="AF60" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7133,19 +8906,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" style="12"/>
-    <col min="3" max="3" width="16.796875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="16.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="12"/>
+    <col min="7" max="7" width="13.6640625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -7187,7 +8960,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -7210,7 +8983,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -7235,7 +9008,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>55</v>
@@ -7258,7 +9031,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -7283,7 +9056,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -7308,7 +9081,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7323,7 +9096,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7338,7 +9111,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7353,7 +9126,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7368,7 +9141,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7383,7 +9156,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7398,7 +9171,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7413,7 +9186,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7428,7 +9201,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="3"/>
@@ -7457,7 +9230,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
